--- a/biology/Zoologie/Carbinea_breviscapa/Carbinea_breviscapa.xlsx
+++ b/biology/Zoologie/Carbinea_breviscapa/Carbinea_breviscapa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carbinea breviscapa est une espèce d'araignées aranéomorphes de la famille des Stiphidiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carbinea breviscapa est une espèce d'araignées aranéomorphes de la famille des Stiphidiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre dans le Windsor Tableland et le Carbine Tableland sur les monts Spurgeon, Lewis, Black et Formartine[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre dans le Windsor Tableland et le Carbine Tableland sur les monts Spurgeon, Lewis, Black et Formartine.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,8 mm de long sur 1,3 mm de large, son abdomen 2,1 mm de long. La carapace du mâle paratype mesure 1,7 mm de long sur 1,4 mm de large, son abdomen 1,8 mm de long[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 1,8 mm de long sur 1,3 mm de large, son abdomen 2,1 mm de long. La carapace du mâle paratype mesure 1,7 mm de long sur 1,4 mm de large, son abdomen 1,8 mm de long.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Davies, 1999 : Carbinea, a new spider genus from north Queensland, Australia (Araneae, Amaurobioidea, Kababininae). Journal of Arachnology, vol. 27, p. 25-36 (texte intégral).</t>
         </is>
